--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Dropbox\InputData\bldgs\PCFURfE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24915" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="PCFURfE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -138,9 +143,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -240,12 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -253,12 +258,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +341,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,9 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.5703125" customWidth="1"/>
   </cols>
@@ -687,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -824,9 +866,9 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
